--- a/biology/Zoologie/Athyreacaridae/Athyreacaridae.xlsx
+++ b/biology/Zoologie/Athyreacaridae/Athyreacaridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Athyreacaridae sont une famille d'acariens de l'ordre  des Trombidiformes, de l'infra-ordre des Eleutherengona, de l'hypo-ordre des Heterostigmata et de la super-famille des Trochometridioidea.
 On trouve ces espèces sur des scarabées, comme ceux du genre Neoathyreus.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 avril 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 avril 2023) :
 Athyreacarus Lindquist, Kaliszewski &amp; Rack, 1990 - genre type
 Neoathyreacarus Khaustov &amp; Frolov, 2022</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Athyreacaridae a été créée en 1990 par Evert E. Lindquist (d), Marek Kaliszewski (d) et Gisela Rack (d)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Athyreacaridae a été créée en 1990 par Evert E. Lindquist (d), Marek Kaliszewski (d) et Gisela Rack (d).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille des Athyreacaridae est une combinaison basée sur Athyreus[3], le genre des insectes sur lesquels ont été trouvés ces acariens, complété du suffixe « acaridae »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille des Athyreacaridae est une combinaison basée sur Athyreus, le genre des insectes sur lesquels ont été trouvés ces acariens, complété du suffixe « acaridae ».
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Evert E. Lindquist, Marek Kaliszewski et Gisela Rack, « Athyreacaridae, a new family of mites (Acari: Heterostigmata) associated with scarab beetles of the genus Neoathyreus (Coleoptera: Scarabaeidae) », Acarologia, Les Amis d'Acarologia (d), vol. 31, no 2,‎ 1990, p. 161–176 (ISSN 0044-586X, 2107-7207 et 0044-586X, OCLC 782068715, lire en ligne)</t>
         </is>
